--- a/biology/Zoologie/Craugastor_tarahumaraensis/Craugastor_tarahumaraensis.xlsx
+++ b/biology/Zoologie/Craugastor_tarahumaraensis/Craugastor_tarahumaraensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Craugastor tarahumaraensis est une espèce d'amphibiens de la famille des Craugastoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Craugastor tarahumaraensis est une espèce d'amphibiens de la famille des Craugastoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1]. Elle se rencontre dans les monts Tarahumara et la Sierra Madre Occidentale dans les États du Sonora, de Chihuahua, de Durango et du Jalisco, vers 2 400 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans les monts Tarahumara et la Sierra Madre Occidentale dans les États du Sonora, de Chihuahua, de Durango et du Jalisco, vers 2 400 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de tarahumara et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Taylor, 1940 : A new frog from the Tarahumara Mountains of Mexico. Copeia, vol. 1940, no 4, p. 250-253.</t>
         </is>
